--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndreiKrausz\Documents\GitHub\POC3_CarsOnMobile\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F555379-FD00-4BA9-874F-A4D1745494D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E3E7F3-349E-4B93-8CF0-6801C9A7FA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>the_URL</t>
   </si>
@@ -45,9 +45,6 @@
     <t>processName</t>
   </si>
   <si>
-    <t>msedge</t>
-  </si>
-  <si>
     <t>carMake</t>
   </si>
   <si>
@@ -90,34 +87,86 @@
     <t xml:space="preserve">Use one of the following: "Automatic transmission", "Semi-automatic", "Manual gearbox". Une can select multiple types.  Please type exactly like in this example </t>
   </si>
   <si>
-    <t>Unit used is HP (horsepower).</t>
-  </si>
-  <si>
-    <t>Unit used is cubic cm.</t>
-  </si>
-  <si>
     <t>emissionSticker</t>
   </si>
   <si>
     <t>Select from 1 to 4</t>
+  </si>
+  <si>
+    <t>Desktop</t>
+  </si>
+  <si>
+    <t>OutputReport_path</t>
+  </si>
+  <si>
+    <t>mailSubject</t>
+  </si>
+  <si>
+    <t>OutputReport</t>
+  </si>
+  <si>
+    <t>mailBody</t>
+  </si>
+  <si>
+    <t>pot sa scriu orice ?</t>
+  </si>
+  <si>
+    <t>msedge.exe</t>
+  </si>
+  <si>
+    <t>emailRecipients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The URL to the website that we use in this project. </t>
+  </si>
+  <si>
+    <t>The makes to search for. If needed to be added/remove, please keep in mind that the "index" of the "car" from this value list needs to match the "index" of "same car" from the value list of the "model" key/value pair.</t>
+  </si>
+  <si>
+    <t>The models to search for. If needed to be added/remove, please keep in mind that the "index" of the "car" from this value list needs to match the "index" of "same car" from the value list of the "make" key/value pair.</t>
+  </si>
+  <si>
+    <t>The types of car to search for.</t>
+  </si>
+  <si>
+    <t>The numer of seats the car we search for should have</t>
+  </si>
+  <si>
+    <t>The types of fuel the car to search for should have.</t>
+  </si>
+  <si>
+    <t>The maximum capacity of engine the car to search for should have. Unit used is cubic cm.</t>
+  </si>
+  <si>
+    <t>The minimum amount of power the car to search for should have. Unit used is HP (horsepower).</t>
+  </si>
+  <si>
+    <t>The path where we want to save the OutputReport excel file on our local machine.</t>
+  </si>
+  <si>
+    <t>The emails to which we should send the OutputReport file to.</t>
+  </si>
+  <si>
+    <t>The subject of the mail to be sent.</t>
+  </si>
+  <si>
+    <t>The body of the mail to be sent.</t>
+  </si>
+  <si>
+    <t>diana.sacacian@fwfcompany.com; patricia.ciortin@fwfcompany.com; calin.gandila@fwfcompany.com;</t>
+  </si>
+  <si>
+    <t>The name of the process to be closed at the start of the project</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -148,21 +197,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -441,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -455,147 +502,208 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>12</v>
+      <c r="C11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
         <v>5</v>
       </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B14" s="4"/>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>15</v>
+      <c r="C15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B16" s="4"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
         <v>131</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="4"/>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
         <v>3000</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B20" s="4"/>
+      <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" t="s">
         <v>19</v>
       </c>
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B22" s="4"/>
+      <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="4">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>24</v>
       </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{D77CCAB4-9EEE-407E-BAAF-AECD10737E8E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>